--- a/ProjectDocumentation/Appendices/Appendix O - Financials/Financials.xlsx
+++ b/ProjectDocumentation/Appendices/Appendix O - Financials/Financials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\ConstructionChaos\ProjectDocumentation\Appendices\Appendix O - Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7466A04C-413A-44F1-B2ED-ECD3974DEF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F088A7-D2CC-4648-9988-8D305981B725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{7FF5E3A2-4F9E-48CF-947F-F08E82E5B58C}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
   <si>
     <t>Fixed Costs</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>Estimated number of target audience captured</t>
+  </si>
+  <si>
+    <t>Total Investor profit</t>
+  </si>
+  <si>
+    <t>Total investor share</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -605,7 +611,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -687,6 +693,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,15 +729,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -896,19 +904,19 @@
                 <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14013.440000000002</c:v>
+                  <c:v>21018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42040.320000000007</c:v>
+                  <c:v>63060</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70067.200000000012</c:v>
+                  <c:v>105096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70067.200000000012</c:v>
+                  <c:v>105096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70067.200000000012</c:v>
+                  <c:v>105096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3948,20 +3956,20 @@
       <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="I3" s="41" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="I3" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
@@ -4524,12 +4532,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
@@ -4653,11 +4661,11 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I14" s="6" t="s">
@@ -4803,27 +4811,27 @@
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G2" s="9"/>
-      <c r="H2" s="45">
+      <c r="H2" s="50">
         <v>2023</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50">
         <v>2024</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
     </row>
     <row r="3" spans="2:24" ht="27" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
@@ -5009,7 +5017,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="E11" sqref="E11:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5026,7 +5034,7 @@
       <c r="B2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="43">
         <v>1700000000</v>
       </c>
     </row>
@@ -5034,7 +5042,7 @@
       <c r="B3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="44">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -5042,7 +5050,7 @@
       <c r="B4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="45">
         <f>C3*C2</f>
         <v>952000000.00000012</v>
       </c>
@@ -5051,7 +5059,7 @@
       <c r="B5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="44">
         <v>0.73599999999999999</v>
       </c>
     </row>
@@ -5059,7 +5067,7 @@
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="45">
         <f>C5*C4</f>
         <v>700672000.00000012</v>
       </c>
@@ -5068,7 +5076,7 @@
       <c r="B7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="44">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -5076,7 +5084,7 @@
       <c r="B8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="45">
         <f>C7*C6</f>
         <v>3503360.0000000005</v>
       </c>
@@ -5085,7 +5093,7 @@
       <c r="B9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="44">
         <v>0.1</v>
       </c>
     </row>
@@ -5093,7 +5101,7 @@
       <c r="B10" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="42">
         <f>C9*C8</f>
         <v>350336.00000000006</v>
       </c>
@@ -5107,36 +5115,36 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="50">
+      <c r="F12" s="41">
         <f>C10</f>
         <v>350336.00000000006</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="35">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="53" t="s">
         <v>74</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="53" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="47"/>
-      <c r="F15" s="49"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="49"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E16" s="19" t="s">
@@ -5146,12 +5154,12 @@
         <v>0.01</v>
       </c>
       <c r="G16" s="19">
-        <f>F16*$F$12</f>
-        <v>3503.3600000000006</v>
+        <f>ROUNDDOWN(F16*$F$12,0)</f>
+        <v>3503</v>
       </c>
       <c r="H16" s="8">
         <f>G16*$H$12</f>
-        <v>14013.440000000002</v>
+        <v>21018</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
@@ -5162,12 +5170,12 @@
         <v>0.03</v>
       </c>
       <c r="G17" s="19">
-        <f t="shared" ref="G17:G20" si="0">F17*$F$12</f>
-        <v>10510.080000000002</v>
+        <f t="shared" ref="G17:G20" si="0">ROUNDDOWN(F17*$F$12,0)</f>
+        <v>10510</v>
       </c>
       <c r="H17" s="8">
         <f>G17*$H$12</f>
-        <v>42040.320000000007</v>
+        <v>63060</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
@@ -5179,11 +5187,11 @@
       </c>
       <c r="G18" s="19">
         <f t="shared" si="0"/>
-        <v>17516.800000000003</v>
+        <v>17516</v>
       </c>
       <c r="H18" s="8">
         <f>G18*$H$12</f>
-        <v>70067.200000000012</v>
+        <v>105096</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
@@ -5195,11 +5203,11 @@
       </c>
       <c r="G19" s="19">
         <f t="shared" si="0"/>
-        <v>17516.800000000003</v>
+        <v>17516</v>
       </c>
       <c r="H19" s="8">
         <f>G19*$H$12</f>
-        <v>70067.200000000012</v>
+        <v>105096</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
@@ -5211,11 +5219,11 @@
       </c>
       <c r="G20" s="19">
         <f t="shared" si="0"/>
-        <v>17516.800000000003</v>
+        <v>17516</v>
       </c>
       <c r="H20" s="8">
         <f>G20*$H$12</f>
-        <v>70067.200000000012</v>
+        <v>105096</v>
       </c>
     </row>
   </sheetData>
@@ -5262,7 +5270,7 @@
       </c>
       <c r="D3" s="36">
         <f>'Estimated Revenue'!H16</f>
-        <v>14013.440000000002</v>
+        <v>21018</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
@@ -5457,7 +5465,7 @@
       </c>
       <c r="D12" s="8">
         <f>SUM(D3:D11)</f>
-        <v>6659.7362962962998</v>
+        <v>13664.296296296299</v>
       </c>
       <c r="F12" s="17"/>
       <c r="H12" s="6" t="s">
@@ -5490,7 +5498,7 @@
       </c>
       <c r="D13" s="8">
         <f>'Estimated Revenue'!H17</f>
-        <v>42040.320000000007</v>
+        <v>63060</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
@@ -5517,7 +5525,7 @@
       </c>
       <c r="D16" s="8">
         <f>SUM(D12:D15)</f>
-        <v>26945.056296296309</v>
+        <v>54969.296296296292</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -5526,7 +5534,7 @@
       </c>
       <c r="D17" s="8">
         <f>'Estimated Revenue'!H18</f>
-        <v>70067.200000000012</v>
+        <v>105096</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
@@ -5553,7 +5561,7 @@
       </c>
       <c r="D20" s="8">
         <f>SUM(D16:D19)</f>
-        <v>89482.256296296313</v>
+        <v>152535.29629629629</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
@@ -5562,7 +5570,7 @@
       </c>
       <c r="D21" s="8">
         <f>'Estimated Revenue'!H19</f>
-        <v>70067.200000000012</v>
+        <v>105096</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
@@ -5589,7 +5597,7 @@
       </c>
       <c r="D24" s="8">
         <f>SUM(D20:D23)</f>
-        <v>137979.45629629632</v>
+        <v>236061.29629629629</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
@@ -5598,7 +5606,7 @@
       </c>
       <c r="D25" s="8">
         <f>'Estimated Revenue'!H20</f>
-        <v>70067.200000000012</v>
+        <v>105096</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
@@ -5625,7 +5633,7 @@
       </c>
       <c r="D28" s="8">
         <f>SUM(D24:D27)</f>
-        <v>186476.65629629634</v>
+        <v>319587.29629629629</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
@@ -5640,10 +5648,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A1F534-AC8E-46AC-90DA-5ABDA8C9D1B8}">
-  <dimension ref="C1:F9"/>
+  <dimension ref="C1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5658,7 +5666,7 @@
         <v>111</v>
       </c>
       <c r="D1" s="40">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
@@ -5689,15 +5697,15 @@
       </c>
       <c r="D5" s="36">
         <f>'Cost Walk'!D12</f>
-        <v>6659.7362962962998</v>
+        <v>13664.296296296299</v>
       </c>
       <c r="E5" s="36">
         <f>D5*$D$1</f>
-        <v>1331.9472592592601</v>
+        <v>5465.7185185185199</v>
       </c>
       <c r="F5" s="40">
         <f>E5/$D$2</f>
-        <v>2.2199120987654336E-2</v>
+        <v>9.1095308641975334E-2</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -5706,15 +5714,15 @@
       </c>
       <c r="D6" s="36">
         <f>'Cost Walk'!D16</f>
-        <v>26945.056296296309</v>
+        <v>54969.296296296292</v>
       </c>
       <c r="E6" s="36">
         <f t="shared" ref="E6:E9" si="0">D6*$D$1</f>
-        <v>5389.0112592592623</v>
+        <v>21987.718518518519</v>
       </c>
       <c r="F6" s="40">
         <f t="shared" ref="F6:F9" si="1">E6/$D$2</f>
-        <v>8.981685432098771E-2</v>
+        <v>0.366461975308642</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
@@ -5723,15 +5731,15 @@
       </c>
       <c r="D7" s="36">
         <f>'Cost Walk'!D20</f>
-        <v>89482.256296296313</v>
+        <v>152535.29629629629</v>
       </c>
       <c r="E7" s="36">
         <f t="shared" si="0"/>
-        <v>17896.451259259262</v>
+        <v>61014.118518518517</v>
       </c>
       <c r="F7" s="40">
         <f t="shared" si="1"/>
-        <v>0.29827418765432101</v>
+        <v>1.0169019753086419</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
@@ -5740,15 +5748,15 @@
       </c>
       <c r="D8" s="36">
         <f>'Cost Walk'!D24</f>
-        <v>137979.45629629632</v>
+        <v>236061.29629629629</v>
       </c>
       <c r="E8" s="36">
         <f t="shared" si="0"/>
-        <v>27595.891259259268</v>
+        <v>94424.518518518526</v>
       </c>
       <c r="F8" s="40">
         <f t="shared" si="1"/>
-        <v>0.45993152098765444</v>
+        <v>1.5737419753086421</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
@@ -5757,18 +5765,42 @@
       </c>
       <c r="D9" s="36">
         <f>'Cost Walk'!D28</f>
-        <v>186476.65629629634</v>
+        <v>319587.29629629629</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" si="0"/>
-        <v>37295.33125925927</v>
+        <v>127834.91851851852</v>
       </c>
       <c r="F9" s="40">
         <f t="shared" si="1"/>
-        <v>0.62158885432098787</v>
-      </c>
+        <v>2.1305819753086421</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM(E5:E9)</f>
+        <v>310726.99259259261</v>
+      </c>
+      <c r="F11" s="56">
+        <f>E11/D2</f>
+        <v>5.1787832098765438</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="4">
+        <f>E11-D2</f>
+        <v>250726.99259259261</v>
+      </c>
+      <c r="F12" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProjectDocumentation/Appendices/Appendix O - Financials/Financials.xlsx
+++ b/ProjectDocumentation/Appendices/Appendix O - Financials/Financials.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\ConstructionChaos\ProjectDocumentation\Appendices\Appendix O - Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F088A7-D2CC-4648-9988-8D305981B725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08E4DB5-3B02-43F8-BCE0-028956743A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{7FF5E3A2-4F9E-48CF-947F-F08E82E5B58C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{7FF5E3A2-4F9E-48CF-947F-F08E82E5B58C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planned Change Data" sheetId="5" r:id="rId1"/>
-    <sheet name="Fixed and Variable Costs" sheetId="1" r:id="rId2"/>
-    <sheet name="Yr One Timeline" sheetId="3" r:id="rId3"/>
-    <sheet name="Estimated Revenue" sheetId="2" r:id="rId4"/>
-    <sheet name="Cost Walk" sheetId="4" r:id="rId5"/>
-    <sheet name="ROI" sheetId="6" r:id="rId6"/>
+    <sheet name="Unity Relay Costs" sheetId="7" r:id="rId2"/>
+    <sheet name="Fixed and Variable Costs" sheetId="1" r:id="rId3"/>
+    <sheet name="Yr One Timeline" sheetId="3" r:id="rId4"/>
+    <sheet name="Estimated Revenue" sheetId="2" r:id="rId5"/>
+    <sheet name="Itch Fees" sheetId="8" r:id="rId6"/>
+    <sheet name="Cost Walk" sheetId="4" r:id="rId7"/>
+    <sheet name="ROI" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v5.0" hidden="1">'Cost Walk'!$C$3:$C$28</definedName>
+    <definedName name="_xlchart.v5.0" hidden="1">'Cost Walk'!$C$3:$C$15</definedName>
     <definedName name="_xlchart.v5.1" hidden="1">'Cost Walk'!$D$2</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">'Cost Walk'!$D$3:$D$28</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">'Cost Walk'!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">'Cost Walk'!$D$3:$D$15</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">'Cost Walk'!$C$3:$C$43</definedName>
     <definedName name="_xlchart.v5.4" hidden="1">'Cost Walk'!$D$2</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">'Cost Walk'!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">'Cost Walk'!$D$3:$D$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
   <si>
     <t>Fixed Costs</t>
   </si>
@@ -109,18 +111,9 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Total Variable Costs</t>
-  </si>
-  <si>
     <t>Total Fixed Costs</t>
   </si>
   <si>
-    <t>Total Costs (excl. Maintenance)</t>
-  </si>
-  <si>
-    <t>Variable Cost Calculations</t>
-  </si>
-  <si>
     <t>Cost Estimations</t>
   </si>
   <si>
@@ -298,12 +291,6 @@
     <t>3 x PC</t>
   </si>
   <si>
-    <t>Itch.io Fee (10%)</t>
-  </si>
-  <si>
-    <t>10% of £4</t>
-  </si>
-  <si>
     <t>Improvement</t>
   </si>
   <si>
@@ -367,9 +354,6 @@
     <t>Assumed level of maintenance</t>
   </si>
   <si>
-    <t>Maintenance (48 hours)</t>
-  </si>
-  <si>
     <t>Ad Costs (5 weeks)</t>
   </si>
   <si>
@@ -419,6 +403,135 @@
   </si>
   <si>
     <t>Total investor share</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - No individual player will exceed their free monthly allowance of 3Gb - therefore only cost is when exceeding the cap</t>
+  </si>
+  <si>
+    <t>Typical Play Session Stats</t>
+  </si>
+  <si>
+    <t>Number of Units Sold</t>
+  </si>
+  <si>
+    <t>Number of Players</t>
+  </si>
+  <si>
+    <t>Number of concurrent players</t>
+  </si>
+  <si>
+    <t>Monthly Data consumption (MB)</t>
+  </si>
+  <si>
+    <t>Free Data (cap in MB)</t>
+  </si>
+  <si>
+    <t>Net Data (MB)</t>
+  </si>
+  <si>
+    <t>Cost of data (per month)</t>
+  </si>
+  <si>
+    <t>Total Cost (per month)</t>
+  </si>
+  <si>
+    <t>Cost of data (per year)</t>
+  </si>
+  <si>
+    <t>Total Cost (per year)</t>
+  </si>
+  <si>
+    <t>Players</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>mins</t>
+  </si>
+  <si>
+    <t>Game Data Usage</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Per Player Data Usage</t>
+  </si>
+  <si>
+    <t>Assumed percentage of concurrent users</t>
+  </si>
+  <si>
+    <t>Assumed percetage of players playing every month</t>
+  </si>
+  <si>
+    <t>Assumed play sessions per month (on average)</t>
+  </si>
+  <si>
+    <t>USD --&gt; GBP FX Rate</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Cost per GB</t>
+  </si>
+  <si>
+    <t>Cost per concurrent user above 50</t>
+  </si>
+  <si>
+    <t>Variable Labour Costs</t>
+  </si>
+  <si>
+    <t>Total Variable Labour Costs</t>
+  </si>
+  <si>
+    <t>Unity Relay</t>
+  </si>
+  <si>
+    <t>Itch Cost</t>
+  </si>
+  <si>
+    <t>Itch.io Fee (5%)</t>
+  </si>
+  <si>
+    <t>Total Costs (excl. Maintenance &amp; yearly overheads)</t>
+  </si>
+  <si>
+    <t>5% of £6 - per unit sold</t>
+  </si>
+  <si>
+    <t>Annual Costs</t>
+  </si>
+  <si>
+    <t>Cost of concurrent player &gt; 50 (per month)</t>
+  </si>
+  <si>
+    <t>Unity Relay Fees - CCU</t>
+  </si>
+  <si>
+    <t>Unity Relay Fees - Bandwidth</t>
+  </si>
+  <si>
+    <t>per GB &gt; 150 per month</t>
+  </si>
+  <si>
+    <t>per CCU &gt; 50 per month</t>
+  </si>
+  <si>
+    <t>Cost of concurrent players &gt; 50 (per year)</t>
+  </si>
+  <si>
+    <t>Itch Fee (5%)</t>
+  </si>
+  <si>
+    <t>Maintenance (117 hours)</t>
   </si>
 </sst>
 </file>
@@ -611,7 +724,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -702,6 +815,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -729,8 +844,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1136,10 +1260,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.0</cx:f>
+        <cx:f>_xlchart.v5.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v5.2</cx:f>
+        <cx:f>_xlchart.v5.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1177,7 +1301,7 @@
         <cx:series layoutId="waterfall" uniqueId="{B1125F9A-FC20-4CCB-B327-89125896B927}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v5.1</cx:f>
+              <cx:f>_xlchart.v5.4</cx:f>
               <cx:v> Increase </cx:v>
             </cx:txData>
           </cx:tx>
@@ -1185,11 +1309,11 @@
           <cx:layoutPr>
             <cx:subtotals>
               <cx:idx val="0"/>
-              <cx:idx val="9"/>
-              <cx:idx val="13"/>
-              <cx:idx val="17"/>
-              <cx:idx val="21"/>
-              <cx:idx val="25"/>
+              <cx:idx val="12"/>
+              <cx:idx val="19"/>
+              <cx:idx val="26"/>
+              <cx:idx val="33"/>
+              <cx:idx val="40"/>
             </cx:subtotals>
           </cx:layoutPr>
         </cx:series>
@@ -1260,10 +1384,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.3</cx:f>
+        <cx:f>_xlchart.v5.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v5.5</cx:f>
+        <cx:f>_xlchart.v5.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1301,7 +1425,7 @@
         <cx:series layoutId="waterfall" uniqueId="{C247498D-79AC-4A6C-A0C7-792604F49BFC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v5.4</cx:f>
+              <cx:f>_xlchart.v5.1</cx:f>
               <cx:v> Increase </cx:v>
             </cx:txData>
           </cx:tx>
@@ -1310,7 +1434,7 @@
           <cx:layoutPr>
             <cx:subtotals>
               <cx:idx val="0"/>
-              <cx:idx val="9"/>
+              <cx:idx val="12"/>
             </cx:subtotals>
           </cx:layoutPr>
         </cx:series>
@@ -3037,6 +3161,244 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6922CE-43D5-C3F9-2CF5-B2843E96C79D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5934075" y="2705099"/>
+          <a:ext cx="5991225" cy="3009901"/>
+          <a:chOff x="6276975" y="3590924"/>
+          <a:chExt cx="5991225" cy="3009901"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF9DDFF-1A9C-BBA1-3401-3F238E448DC0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6276975" y="3590924"/>
+            <a:ext cx="5991225" cy="3009901"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 3869"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB37515-FF94-440C-A29E-DB32BA63F05D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9435429" y="3657599"/>
+            <a:ext cx="2747046" cy="2706985"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40219562-FA8B-AD87-224F-CC9139A96C4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6334125" y="4379343"/>
+            <a:ext cx="4486274" cy="2183381"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA48D7A-E807-74DB-4F30-9053C75D92EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6324600" y="3657599"/>
+            <a:ext cx="2085975" cy="530658"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="1"/>
+              <a:t>Play data for a 10 minute, 4 player session</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -3428,7 +3790,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3469,7 +3831,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3956,24 +4318,24 @@
       <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="I3" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="C3" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="I3" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>15</v>
@@ -3988,7 +4350,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>15</v>
@@ -4003,12 +4365,12 @@
         <v>12</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C5" s="28">
         <v>133.33333333333331</v>
@@ -4026,19 +4388,19 @@
         <v>1200</v>
       </c>
       <c r="I5" s="36">
-        <f>C5*'Fixed and Variable Costs'!$D$7</f>
+        <f>C5*'Fixed and Variable Costs'!$D$6</f>
         <v>2399.9999999999995</v>
       </c>
       <c r="J5" s="36">
-        <f>D5*'Fixed and Variable Costs'!$D$8</f>
+        <f>D5*'Fixed and Variable Costs'!$D$7</f>
         <v>7777.7777777777774</v>
       </c>
       <c r="K5" s="36">
-        <f>E5*'Fixed and Variable Costs'!$D$8</f>
+        <f>E5*'Fixed and Variable Costs'!$D$7</f>
         <v>11111.111111111109</v>
       </c>
       <c r="L5" s="36">
-        <f>F5*'Fixed and Variable Costs'!$D$9</f>
+        <f>F5*'Fixed and Variable Costs'!$D$8</f>
         <v>4666.6666666666661</v>
       </c>
       <c r="M5" s="36">
@@ -4048,7 +4410,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" s="28">
         <v>20</v>
@@ -4066,19 +4428,19 @@
         <v>180</v>
       </c>
       <c r="I6" s="36">
-        <f>C6*'Fixed and Variable Costs'!$D$7</f>
+        <f>C6*'Fixed and Variable Costs'!$D$6</f>
         <v>360</v>
       </c>
       <c r="J6" s="36">
-        <f>D6*'Fixed and Variable Costs'!$D$8</f>
+        <f>D6*'Fixed and Variable Costs'!$D$7</f>
         <v>1166.6666666666665</v>
       </c>
       <c r="K6" s="36">
-        <f>E6*'Fixed and Variable Costs'!$D$8</f>
+        <f>E6*'Fixed and Variable Costs'!$D$7</f>
         <v>1666.6666666666665</v>
       </c>
       <c r="L6" s="36">
-        <f>F6*'Fixed and Variable Costs'!$D$9</f>
+        <f>F6*'Fixed and Variable Costs'!$D$8</f>
         <v>700</v>
       </c>
       <c r="M6" s="36">
@@ -4088,7 +4450,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C7" s="28">
         <v>8.8888888888888893</v>
@@ -4106,19 +4468,19 @@
         <v>80</v>
       </c>
       <c r="I7" s="36">
-        <f>C7*'Fixed and Variable Costs'!$D$7</f>
+        <f>C7*'Fixed and Variable Costs'!$D$6</f>
         <v>160</v>
       </c>
       <c r="J7" s="36">
-        <f>D7*'Fixed and Variable Costs'!$D$8</f>
+        <f>D7*'Fixed and Variable Costs'!$D$7</f>
         <v>518.51851851851848</v>
       </c>
       <c r="K7" s="36">
-        <f>E7*'Fixed and Variable Costs'!$D$8</f>
+        <f>E7*'Fixed and Variable Costs'!$D$7</f>
         <v>740.74074074074065</v>
       </c>
       <c r="L7" s="36">
-        <f>F7*'Fixed and Variable Costs'!$D$9</f>
+        <f>F7*'Fixed and Variable Costs'!$D$8</f>
         <v>311.11111111111109</v>
       </c>
       <c r="M7" s="36">
@@ -4128,7 +4490,7 @@
     </row>
     <row r="8" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C8" s="28">
         <v>8.8888888888888893</v>
@@ -4146,19 +4508,19 @@
         <v>80</v>
       </c>
       <c r="I8" s="36">
-        <f>C8*'Fixed and Variable Costs'!$D$7</f>
+        <f>C8*'Fixed and Variable Costs'!$D$6</f>
         <v>160</v>
       </c>
       <c r="J8" s="36">
-        <f>D8*'Fixed and Variable Costs'!$D$8</f>
+        <f>D8*'Fixed and Variable Costs'!$D$7</f>
         <v>518.51851851851848</v>
       </c>
       <c r="K8" s="36">
-        <f>E8*'Fixed and Variable Costs'!$D$8</f>
+        <f>E8*'Fixed and Variable Costs'!$D$7</f>
         <v>740.74074074074065</v>
       </c>
       <c r="L8" s="36">
-        <f>F8*'Fixed and Variable Costs'!$D$9</f>
+        <f>F8*'Fixed and Variable Costs'!$D$8</f>
         <v>311.11111111111109</v>
       </c>
       <c r="M8" s="36">
@@ -4168,7 +4530,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C9" s="28">
         <v>13.333333333333332</v>
@@ -4186,19 +4548,19 @@
         <v>120</v>
       </c>
       <c r="I9" s="36">
-        <f>C9*'Fixed and Variable Costs'!$D$7</f>
+        <f>C9*'Fixed and Variable Costs'!$D$6</f>
         <v>239.99999999999997</v>
       </c>
       <c r="J9" s="36">
-        <f>D9*'Fixed and Variable Costs'!$D$8</f>
+        <f>D9*'Fixed and Variable Costs'!$D$7</f>
         <v>777.77777777777771</v>
       </c>
       <c r="K9" s="36">
-        <f>E9*'Fixed and Variable Costs'!$D$8</f>
+        <f>E9*'Fixed and Variable Costs'!$D$7</f>
         <v>1111.1111111111111</v>
       </c>
       <c r="L9" s="36">
-        <f>F9*'Fixed and Variable Costs'!$D$9</f>
+        <f>F9*'Fixed and Variable Costs'!$D$8</f>
         <v>466.66666666666669</v>
       </c>
       <c r="M9" s="36">
@@ -4208,7 +4570,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C10" s="28">
         <v>4.4444444444444446</v>
@@ -4226,19 +4588,19 @@
         <v>40</v>
       </c>
       <c r="I10" s="36">
-        <f>C10*'Fixed and Variable Costs'!$D$7</f>
+        <f>C10*'Fixed and Variable Costs'!$D$6</f>
         <v>80</v>
       </c>
       <c r="J10" s="36">
-        <f>D10*'Fixed and Variable Costs'!$D$8</f>
+        <f>D10*'Fixed and Variable Costs'!$D$7</f>
         <v>259.25925925925924</v>
       </c>
       <c r="K10" s="36">
-        <f>E10*'Fixed and Variable Costs'!$D$8</f>
+        <f>E10*'Fixed and Variable Costs'!$D$7</f>
         <v>370.37037037037032</v>
       </c>
       <c r="L10" s="36">
-        <f>F10*'Fixed and Variable Costs'!$D$9</f>
+        <f>F10*'Fixed and Variable Costs'!$D$8</f>
         <v>155.55555555555554</v>
       </c>
       <c r="M10" s="36">
@@ -4248,7 +4610,7 @@
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C11" s="28">
         <v>44.444444444444443</v>
@@ -4266,19 +4628,19 @@
         <v>400</v>
       </c>
       <c r="I11" s="36">
-        <f>C11*'Fixed and Variable Costs'!$D$7</f>
+        <f>C11*'Fixed and Variable Costs'!$D$6</f>
         <v>800</v>
       </c>
       <c r="J11" s="36">
-        <f>D11*'Fixed and Variable Costs'!$D$8</f>
+        <f>D11*'Fixed and Variable Costs'!$D$7</f>
         <v>2592.5925925925922</v>
       </c>
       <c r="K11" s="36">
-        <f>E11*'Fixed and Variable Costs'!$D$8</f>
+        <f>E11*'Fixed and Variable Costs'!$D$7</f>
         <v>3703.7037037037039</v>
       </c>
       <c r="L11" s="36">
-        <f>F11*'Fixed and Variable Costs'!$D$9</f>
+        <f>F11*'Fixed and Variable Costs'!$D$8</f>
         <v>1555.5555555555554</v>
       </c>
       <c r="M11" s="36">
@@ -4288,7 +4650,7 @@
     </row>
     <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C12" s="28">
         <v>22.222222222222221</v>
@@ -4306,19 +4668,19 @@
         <v>200</v>
       </c>
       <c r="I12" s="36">
-        <f>C12*'Fixed and Variable Costs'!$D$7</f>
+        <f>C12*'Fixed and Variable Costs'!$D$6</f>
         <v>400</v>
       </c>
       <c r="J12" s="36">
-        <f>D12*'Fixed and Variable Costs'!$D$8</f>
+        <f>D12*'Fixed and Variable Costs'!$D$7</f>
         <v>1296.2962962962961</v>
       </c>
       <c r="K12" s="36">
-        <f>E12*'Fixed and Variable Costs'!$D$8</f>
+        <f>E12*'Fixed and Variable Costs'!$D$7</f>
         <v>1851.851851851852</v>
       </c>
       <c r="L12" s="36">
-        <f>F12*'Fixed and Variable Costs'!$D$9</f>
+        <f>F12*'Fixed and Variable Costs'!$D$8</f>
         <v>777.77777777777771</v>
       </c>
       <c r="M12" s="36">
@@ -4328,7 +4690,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C13" s="28">
         <v>4.4444444444444446</v>
@@ -4346,19 +4708,19 @@
         <v>40</v>
       </c>
       <c r="I13" s="36">
-        <f>C13*'Fixed and Variable Costs'!$D$7</f>
+        <f>C13*'Fixed and Variable Costs'!$D$6</f>
         <v>80</v>
       </c>
       <c r="J13" s="36">
-        <f>D13*'Fixed and Variable Costs'!$D$8</f>
+        <f>D13*'Fixed and Variable Costs'!$D$7</f>
         <v>259.25925925925924</v>
       </c>
       <c r="K13" s="36">
-        <f>E13*'Fixed and Variable Costs'!$D$8</f>
+        <f>E13*'Fixed and Variable Costs'!$D$7</f>
         <v>370.37037037037032</v>
       </c>
       <c r="L13" s="36">
-        <f>F13*'Fixed and Variable Costs'!$D$9</f>
+        <f>F13*'Fixed and Variable Costs'!$D$8</f>
         <v>155.55555555555554</v>
       </c>
       <c r="M13" s="36">
@@ -4368,7 +4730,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C14" s="28">
         <v>8.8888888888888893</v>
@@ -4386,19 +4748,19 @@
         <v>80</v>
       </c>
       <c r="I14" s="36">
-        <f>C14*'Fixed and Variable Costs'!$D$7</f>
+        <f>C14*'Fixed and Variable Costs'!$D$6</f>
         <v>160</v>
       </c>
       <c r="J14" s="36">
-        <f>D14*'Fixed and Variable Costs'!$D$8</f>
+        <f>D14*'Fixed and Variable Costs'!$D$7</f>
         <v>518.51851851851848</v>
       </c>
       <c r="K14" s="36">
-        <f>E14*'Fixed and Variable Costs'!$D$8</f>
+        <f>E14*'Fixed and Variable Costs'!$D$7</f>
         <v>740.74074074074065</v>
       </c>
       <c r="L14" s="36">
-        <f>F14*'Fixed and Variable Costs'!$D$9</f>
+        <f>F14*'Fixed and Variable Costs'!$D$8</f>
         <v>311.11111111111109</v>
       </c>
       <c r="M14" s="36">
@@ -4408,7 +4770,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C15" s="29">
         <f>SUM(C5:C14)</f>
@@ -4453,7 +4815,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C16" s="29">
         <f>C15/4</f>
@@ -4479,7 +4841,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C17" s="27">
         <f>C16/40</f>
@@ -4513,11 +4875,470 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BCA734-8412-4D5C-9A3A-B2E4978BBE02}">
+  <dimension ref="B2:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="8" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="G5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="S5" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="T5" s="57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <f>'Estimated Revenue'!G16</f>
+        <v>3503</v>
+      </c>
+      <c r="I6" s="19">
+        <f>H6</f>
+        <v>3503</v>
+      </c>
+      <c r="J6" s="19">
+        <f>ROUNDUP(I6*$C$11, 0)</f>
+        <v>351</v>
+      </c>
+      <c r="K6" s="8">
+        <f>(J6-50)*$D$19</f>
+        <v>38.527999999999999</v>
+      </c>
+      <c r="L6" s="43">
+        <f>I6*$C$9*$C$14*$C$12</f>
+        <v>469226.85</v>
+      </c>
+      <c r="M6" s="58">
+        <v>150000</v>
+      </c>
+      <c r="N6" s="45">
+        <f>L6-M6</f>
+        <v>319226.84999999998</v>
+      </c>
+      <c r="O6" s="8">
+        <f>(N6*$D$18)/1000</f>
+        <v>40.861036799999994</v>
+      </c>
+      <c r="P6" s="36">
+        <f>O6+K6</f>
+        <v>79.389036799999985</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="36">
+        <f>K6*12</f>
+        <v>462.33600000000001</v>
+      </c>
+      <c r="S6" s="36">
+        <f>O6*12</f>
+        <v>490.33244159999992</v>
+      </c>
+      <c r="T6" s="36">
+        <f>S6+R6</f>
+        <v>952.66844159999994</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="7">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="19">
+        <v>2</v>
+      </c>
+      <c r="H7" s="19">
+        <f>'Estimated Revenue'!G17</f>
+        <v>10510</v>
+      </c>
+      <c r="I7" s="19">
+        <f>I6+H7</f>
+        <v>14013</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" ref="J7:J10" si="0">ROUNDUP(I7*$C$11, 0)</f>
+        <v>1402</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" ref="K7:K10" si="1">(J7-50)*$D$19</f>
+        <v>173.05600000000001</v>
+      </c>
+      <c r="L7" s="43">
+        <f t="shared" ref="L7:L10" si="2">I7*$C$9*$C$14*$C$12</f>
+        <v>1877041.3499999999</v>
+      </c>
+      <c r="M7" s="58">
+        <v>150000</v>
+      </c>
+      <c r="N7" s="45">
+        <f t="shared" ref="N7:N9" si="3">L7-M7</f>
+        <v>1727041.3499999999</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" ref="O7:O10" si="4">(N7*$D$18)/1000</f>
+        <v>221.06129279999999</v>
+      </c>
+      <c r="P7" s="36">
+        <f t="shared" ref="P7:P10" si="5">O7+K7</f>
+        <v>394.11729279999997</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="36">
+        <f t="shared" ref="R7:R10" si="6">K7*12</f>
+        <v>2076.672</v>
+      </c>
+      <c r="S7" s="36">
+        <f t="shared" ref="S7:S10" si="7">O7*12</f>
+        <v>2652.7355135999996</v>
+      </c>
+      <c r="T7" s="36">
+        <f t="shared" ref="T7:T10" si="8">S7+R7</f>
+        <v>4729.4075135999992</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1071.5999999999999</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="19">
+        <v>3</v>
+      </c>
+      <c r="H8" s="19">
+        <f>'Estimated Revenue'!G18</f>
+        <v>17516</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" ref="I8:I10" si="9">I7+H8</f>
+        <v>31529</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="0"/>
+        <v>3153</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="1"/>
+        <v>397.18400000000003</v>
+      </c>
+      <c r="L8" s="43">
+        <f t="shared" si="2"/>
+        <v>4223309.55</v>
+      </c>
+      <c r="M8" s="58">
+        <v>150000</v>
+      </c>
+      <c r="N8" s="45">
+        <f t="shared" si="3"/>
+        <v>4073309.55</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="4"/>
+        <v>521.38362240000004</v>
+      </c>
+      <c r="P8" s="36">
+        <f t="shared" si="5"/>
+        <v>918.56762240000012</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="36">
+        <f t="shared" si="6"/>
+        <v>4766.2080000000005</v>
+      </c>
+      <c r="S8" s="36">
+        <f t="shared" si="7"/>
+        <v>6256.6034688</v>
+      </c>
+      <c r="T8" s="36">
+        <f t="shared" si="8"/>
+        <v>11022.811468800001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="7">
+        <f>C8/C6</f>
+        <v>267.89999999999998</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="19">
+        <v>4</v>
+      </c>
+      <c r="H9" s="19">
+        <f>'Estimated Revenue'!G19</f>
+        <v>17516</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="9"/>
+        <v>49045</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="0"/>
+        <v>4905</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="1"/>
+        <v>621.44000000000005</v>
+      </c>
+      <c r="L9" s="43">
+        <f t="shared" si="2"/>
+        <v>6569577.7499999991</v>
+      </c>
+      <c r="M9" s="58">
+        <v>150000</v>
+      </c>
+      <c r="N9" s="45">
+        <f t="shared" si="3"/>
+        <v>6419577.7499999991</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="4"/>
+        <v>821.70595199999991</v>
+      </c>
+      <c r="P9" s="36">
+        <f t="shared" si="5"/>
+        <v>1443.1459519999999</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="36">
+        <f t="shared" si="6"/>
+        <v>7457.2800000000007</v>
+      </c>
+      <c r="S9" s="36">
+        <f t="shared" si="7"/>
+        <v>9860.4714239999994</v>
+      </c>
+      <c r="T9" s="36">
+        <f t="shared" si="8"/>
+        <v>17317.751424000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G10" s="19">
+        <v>5</v>
+      </c>
+      <c r="H10" s="19">
+        <f>'Estimated Revenue'!G20</f>
+        <v>17516</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="9"/>
+        <v>66561</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" si="0"/>
+        <v>6657</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="1"/>
+        <v>845.69600000000003</v>
+      </c>
+      <c r="L10" s="43">
+        <f t="shared" si="2"/>
+        <v>8915845.9499999993</v>
+      </c>
+      <c r="M10" s="58">
+        <v>150000</v>
+      </c>
+      <c r="N10" s="45">
+        <f>L10-M10</f>
+        <v>8765845.9499999993</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="4"/>
+        <v>1122.0282815999999</v>
+      </c>
+      <c r="P10" s="36">
+        <f t="shared" si="5"/>
+        <v>1967.7242815999998</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="36">
+        <f t="shared" si="6"/>
+        <v>10148.352000000001</v>
+      </c>
+      <c r="S10" s="36">
+        <f t="shared" si="7"/>
+        <v>13464.339379199999</v>
+      </c>
+      <c r="T10" s="36">
+        <f t="shared" si="8"/>
+        <v>23612.691379199998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="60"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="44">
+        <v>0.125</v>
+      </c>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="D18" s="7">
+        <f>C18*$C$15</f>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="D19" s="7">
+        <f>C19*$C$15</f>
+        <v>0.128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE897970-9A29-45BC-B385-AE89B354F6B4}">
-  <dimension ref="B1:K27"/>
+  <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K24"/>
+      <selection activeCell="B9" sqref="B9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4532,12 +5353,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
@@ -4558,232 +5379,261 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" s="8">
-        <f>4*1500</f>
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="8">
-        <v>4500</v>
+        <v>100</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8">
-        <v>100</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" s="8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D9" s="8">
-        <v>15</v>
+        <v>4500</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="D10" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="D11" s="8">
+        <f>'Unity Relay Costs'!$D$19</f>
+        <v>0.128</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="8">
+        <f>'Unity Relay Costs'!$D$18</f>
+        <v>0.128</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8">
         <v>135</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I13" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I15" s="7" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J16" s="30">
         <f>'Planned Change Data'!C15</f>
         <v>268.88888888888891</v>
       </c>
-      <c r="K15" s="8">
-        <f>J15*D7</f>
+      <c r="K16" s="8">
+        <f>J16*D6</f>
         <v>4840</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I16" s="7" t="s">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J17" s="30">
         <f>'Planned Change Data'!D15</f>
         <v>627.40740740740739</v>
       </c>
-      <c r="K16" s="8">
-        <f>J16*D8</f>
+      <c r="K17" s="8">
+        <f>J17*D7</f>
         <v>15685.185185185184</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="I17" s="7" t="s">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J18" s="30">
         <f>'Planned Change Data'!E15</f>
         <v>896.29629629629642</v>
       </c>
-      <c r="K17" s="8">
-        <f>J17*D8</f>
+      <c r="K18" s="8">
+        <f>J18*D7</f>
         <v>22407.407407407409</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="I18" s="7" t="s">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J19" s="30">
         <f>'Planned Change Data'!F15</f>
         <v>627.40740740740739</v>
       </c>
-      <c r="K18" s="8">
-        <f>J18*D9</f>
+      <c r="K19" s="8">
+        <f>J19*D8</f>
         <v>9411.1111111111113</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="3">
-        <f>SUM(K15:K18)</f>
-        <v>52343.703703703701</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="J20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="4">
-        <f>SUM(D3:D5)</f>
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="5:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="4">
-        <f>K20+K19</f>
-        <v>62943.703703703701</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="4">
-        <f>'Cost Walk'!L12*D8</f>
+        <v>146</v>
+      </c>
+      <c r="K20" s="3">
+        <f>SUM(K16:K19)</f>
+        <v>52343.703703703701</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4">
+        <f>SUM(D3:D4)</f>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="5:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="4">
+        <f>K21+K20</f>
+        <v>56943.703703703701</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="4">
+        <f>'Cost Walk'!L12*D7</f>
         <v>14550</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4791,7 +5641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D885B389-8450-4F8D-89E4-44064002974B}">
   <dimension ref="B2:X9"/>
   <sheetViews>
@@ -4811,83 +5661,83 @@
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G2" s="9"/>
-      <c r="H2" s="50">
+      <c r="H2" s="52">
         <v>2023</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50">
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52">
         <v>2024</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
     </row>
     <row r="3" spans="2:24" ht="27" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="N3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="S3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="T3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="U3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="X3" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
@@ -4895,13 +5745,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>15</v>
@@ -5012,7 +5862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67158FD0-2E0B-489D-94B1-3AAB21E656DA}">
   <dimension ref="B2:H20"/>
   <sheetViews>
@@ -5032,7 +5882,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C2" s="43">
         <v>1700000000</v>
@@ -5040,7 +5890,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C3" s="44">
         <v>0.56000000000000005</v>
@@ -5048,7 +5898,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C4" s="45">
         <f>C3*C2</f>
@@ -5057,7 +5907,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C5" s="44">
         <v>0.73599999999999999</v>
@@ -5065,7 +5915,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C6" s="45">
         <f>C5*C4</f>
@@ -5074,7 +5924,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C7" s="44">
         <v>5.0000000000000001E-3</v>
@@ -5082,7 +5932,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C8" s="45">
         <f>C7*C6</f>
@@ -5091,7 +5941,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C9" s="44">
         <v>0.1</v>
@@ -5099,7 +5949,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C10" s="42">
         <f>C9*C8</f>
@@ -5108,10 +5958,10 @@
     </row>
     <row r="11" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="F11" s="33" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -5125,30 +5975,30 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>74</v>
+      <c r="E14" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>30</v>
+        <v>69</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="52"/>
-      <c r="F15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="54"/>
+        <v>70</v>
+      </c>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E16" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F16" s="18">
         <v>0.01</v>
@@ -5164,7 +6014,7 @@
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F17" s="18">
         <v>0.03</v>
@@ -5180,7 +6030,7 @@
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="18">
         <v>0.05</v>
@@ -5196,7 +6046,7 @@
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19" s="18">
         <v>0.05</v>
@@ -5212,7 +6062,7 @@
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F20" s="18">
         <v>0.05</v>
@@ -5238,12 +6088,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15D7712-3739-414C-9146-9A65A7641733}">
+  <dimension ref="B3:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19">
+        <f>'Estimated Revenue'!G16</f>
+        <v>3503</v>
+      </c>
+      <c r="D4" s="61">
+        <f>C4*'Fixed and Variable Costs'!$D$10</f>
+        <v>1050.8999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19">
+        <f>'Estimated Revenue'!G17</f>
+        <v>10510</v>
+      </c>
+      <c r="D5" s="61">
+        <f>C5*'Fixed and Variable Costs'!$D$10</f>
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19">
+        <f>'Estimated Revenue'!G18</f>
+        <v>17516</v>
+      </c>
+      <c r="D6" s="61">
+        <f>C6*'Fixed and Variable Costs'!$D$10</f>
+        <v>5254.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19">
+        <f>'Estimated Revenue'!G19</f>
+        <v>17516</v>
+      </c>
+      <c r="D7" s="61">
+        <f>C7*'Fixed and Variable Costs'!$D$10</f>
+        <v>5254.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19">
+        <f>'Estimated Revenue'!G20</f>
+        <v>17516</v>
+      </c>
+      <c r="D8" s="61">
+        <f>C8*'Fixed and Variable Costs'!$D$10</f>
+        <v>5254.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF90510-A26B-4CA8-92EE-B37B96E32CAC}">
   <dimension ref="C2:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,12 +6206,12 @@
         <v>13</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="36">
         <f>'Estimated Revenue'!H16</f>
@@ -5275,14 +6220,14 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8">
         <v>60000</v>
       </c>
       <c r="F4" s="17"/>
       <c r="I4" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -5292,11 +6237,11 @@
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="36">
-        <f>'Fixed and Variable Costs'!K20 * -1</f>
-        <v>-10600</v>
+        <f>'Fixed and Variable Costs'!K21 * -1</f>
+        <v>-4600</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -5305,7 +6250,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="36">
-        <f>'Fixed and Variable Costs'!K15 * -1</f>
+        <f>'Fixed and Variable Costs'!K16 * -1</f>
         <v>-4840</v>
       </c>
       <c r="E6" s="1"/>
@@ -5315,25 +6260,25 @@
         <v>16</v>
       </c>
       <c r="D7" s="36">
-        <f>'Fixed and Variable Costs'!K16 * -1</f>
+        <f>'Fixed and Variable Costs'!K17 * -1</f>
         <v>-15685.185185185184</v>
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
@@ -5341,12 +6286,12 @@
         <v>11</v>
       </c>
       <c r="D8" s="36">
-        <f>'Fixed and Variable Costs'!K17 * -1</f>
+        <f>'Fixed and Variable Costs'!K18 * -1</f>
         <v>-22407.407407407409</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I8" s="15">
         <f>'Yr One Timeline'!D9</f>
@@ -5370,12 +6315,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="36">
-        <f>'Fixed and Variable Costs'!K18 * -1</f>
+        <f>'Fixed and Variable Costs'!K19 * -1</f>
         <v>-9411.1111111111113</v>
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I9" s="15">
         <v>45291</v>
@@ -5395,15 +6340,15 @@
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="D10" s="36">
-        <f>I12*'Fixed and Variable Costs'!D8 * -1</f>
+        <f>I12*'Fixed and Variable Costs'!D7 * -1</f>
         <v>-2925</v>
       </c>
       <c r="E10" s="1"/>
       <c r="H10" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
         <f>I9-I8</f>
@@ -5428,15 +6373,15 @@
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D11" s="36">
-        <f>I11*'Fixed and Variable Costs'!D11 * -1</f>
+        <f>I11*'Fixed and Variable Costs'!D13 * -1</f>
         <v>-1485</v>
       </c>
       <c r="E11" s="1"/>
       <c r="H11" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I11" s="7">
         <f>ROUNDUP(I10/7, 0)</f>
@@ -5461,15 +6406,15 @@
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="8">
-        <f>SUM(D3:D11)</f>
-        <v>13664.296296296299</v>
+        <v>147</v>
+      </c>
+      <c r="D12" s="36">
+        <f>'Unity Relay Costs'!T6 *-1</f>
+        <v>-952.66844159999994</v>
       </c>
       <c r="F12" s="17"/>
       <c r="H12" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
         <f>ROUND(I10*$L$4*8, 0)</f>
@@ -5494,146 +6439,281 @@
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="36">
+        <f>'Fixed and Variable Costs'!D9*-1</f>
+        <v>-4500</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="36">
+        <f>'Itch Fees'!D4*-1</f>
+        <v>-1050.8999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="8">
+        <f>SUM(D3:D14)</f>
+        <v>13160.727854696301</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="8">
         <f>'Estimated Revenue'!H17</f>
         <v>63060</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="8">
-        <f>J12*'Fixed and Variable Costs'!D8*-1</f>
-        <v>-14600</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="8">
-        <f>J11*'Fixed and Variable Costs'!D11*-1</f>
-        <v>-7155</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="8">
-        <f>SUM(D12:D15)</f>
-        <v>54969.296296296292</v>
-      </c>
-    </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D17" s="8">
+        <f>J12*'Fixed and Variable Costs'!D7*-1</f>
+        <v>-14600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="8">
+        <f>J11*'Fixed and Variable Costs'!D13*-1</f>
+        <v>-7155</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="8">
+        <f>'Unity Relay Costs'!T7*-1</f>
+        <v>-4729.4075135999992</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="36">
+        <f>'Fixed and Variable Costs'!D9*-1</f>
+        <v>-4500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="36">
+        <f>'Itch Fees'!D5*-1</f>
+        <v>-3153</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="8">
+        <f>SUM(D15:D21)</f>
+        <v>42083.320341096303</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="8">
         <f>'Estimated Revenue'!H18</f>
         <v>105096</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="8">
-        <f>K12*'Fixed and Variable Costs'!D8*-1</f>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8">
+        <f>K12*'Fixed and Variable Costs'!D7*-1</f>
         <v>-14550</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="8">
+        <f>K11*'Fixed and Variable Costs'!D13*-1</f>
+        <v>-7020</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="8">
+        <f>'Unity Relay Costs'!T8*-1</f>
+        <v>-11022.811468800001</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="36">
+        <f>'Fixed and Variable Costs'!D9*-1</f>
+        <v>-4500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="36">
+        <f>'Itch Fees'!D6*-1</f>
+        <v>-5254.8</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D22:D28)</f>
+        <v>104831.70887229631</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="8">
-        <f>K11*'Fixed and Variable Costs'!D11</f>
-        <v>7020</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="8">
-        <f>SUM(D16:D19)</f>
-        <v>152535.29629629629</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="D30" s="8">
         <f>'Estimated Revenue'!H19</f>
         <v>105096</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="8">
-        <f>L12*'Fixed and Variable Costs'!D8*-1</f>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="8">
+        <f>L12*'Fixed and Variable Costs'!D7*-1</f>
         <v>-14550</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="8">
-        <f>L11*'Fixed and Variable Costs'!D11*-1</f>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="8">
+        <f>L11*'Fixed and Variable Costs'!D13*-1</f>
         <v>-7020</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="8">
-        <f>SUM(D20:D23)</f>
-        <v>236061.29629629629</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="8">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="8">
+        <f>'Unity Relay Costs'!T9*-1</f>
+        <v>-17317.751424000002</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="36">
+        <f>'Fixed and Variable Costs'!D9*-1</f>
+        <v>-4500</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="36">
+        <f>'Itch Fees'!D7*-1</f>
+        <v>-5254.8</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="8">
+        <f>SUM(D29:D35)</f>
+        <v>161285.15744829632</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="8">
         <f>'Estimated Revenue'!H20</f>
         <v>105096</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="8">
-        <f>M12*'Fixed and Variable Costs'!D8*-1</f>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="8">
+        <f>M12*'Fixed and Variable Costs'!D7*-1</f>
         <v>-14550</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="8">
-        <f>M11*'Fixed and Variable Costs'!D11*-1</f>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="8">
+        <f>M11*'Fixed and Variable Costs'!D13*-1</f>
         <v>-7020</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="8">
-        <f>SUM(D24:D27)</f>
-        <v>319587.29629629629</v>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="8">
+        <f>'Unity Relay Costs'!T10*-1</f>
+        <v>-23612.691379199998</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="36">
+        <f>'Fixed and Variable Costs'!D9*-1</f>
+        <v>-4500</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="36">
+        <f>'Itch Fees'!D8*-1</f>
+        <v>-5254.8</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="8">
+        <f>SUM(D36:D42)</f>
+        <v>211443.66606909633</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
@@ -5646,12 +6726,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A1F534-AC8E-46AC-90DA-5ABDA8C9D1B8}">
   <dimension ref="C1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,7 +6743,7 @@
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D1" s="40">
         <v>0.4</v>
@@ -5671,7 +6751,7 @@
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D2" s="8">
         <v>60000</v>
@@ -5679,16 +6759,16 @@
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
@@ -5696,16 +6776,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="36">
-        <f>'Cost Walk'!D12</f>
-        <v>13664.296296296299</v>
+        <f>'Cost Walk'!D15</f>
+        <v>13160.727854696301</v>
       </c>
       <c r="E5" s="36">
         <f>D5*$D$1</f>
-        <v>5465.7185185185199</v>
+        <v>5264.2911418785206</v>
       </c>
       <c r="F5" s="40">
         <f>E5/$D$2</f>
-        <v>9.1095308641975334E-2</v>
+        <v>8.7738185697975341E-2</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -5713,16 +6793,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="36">
-        <f>'Cost Walk'!D16</f>
-        <v>54969.296296296292</v>
+        <f>'Cost Walk'!D22</f>
+        <v>42083.320341096303</v>
       </c>
       <c r="E6" s="36">
         <f t="shared" ref="E6:E9" si="0">D6*$D$1</f>
-        <v>21987.718518518519</v>
+        <v>16833.328136438522</v>
       </c>
       <c r="F6" s="40">
         <f t="shared" ref="F6:F9" si="1">E6/$D$2</f>
-        <v>0.366461975308642</v>
+        <v>0.28055546894064204</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
@@ -5730,16 +6810,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="36">
-        <f>'Cost Walk'!D20</f>
-        <v>152535.29629629629</v>
+        <f>'Cost Walk'!D29</f>
+        <v>104831.70887229631</v>
       </c>
       <c r="E7" s="36">
         <f t="shared" si="0"/>
-        <v>61014.118518518517</v>
+        <v>41932.683548918525</v>
       </c>
       <c r="F7" s="40">
         <f t="shared" si="1"/>
-        <v>1.0169019753086419</v>
+        <v>0.69887805914864209</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
@@ -5747,16 +6827,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="36">
-        <f>'Cost Walk'!D24</f>
-        <v>236061.29629629629</v>
+        <f>'Cost Walk'!D36</f>
+        <v>161285.15744829632</v>
       </c>
       <c r="E8" s="36">
         <f t="shared" si="0"/>
-        <v>94424.518518518526</v>
+        <v>64514.062979318529</v>
       </c>
       <c r="F8" s="40">
         <f t="shared" si="1"/>
-        <v>1.5737419753086421</v>
+        <v>1.0752343829886422</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
@@ -5764,40 +6844,40 @@
         <v>5</v>
       </c>
       <c r="D9" s="36">
-        <f>'Cost Walk'!D28</f>
-        <v>319587.29629629629</v>
+        <f>'Cost Walk'!D43</f>
+        <v>211443.66606909633</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" si="0"/>
-        <v>127834.91851851852</v>
+        <v>84577.466427638545</v>
       </c>
       <c r="F9" s="40">
         <f t="shared" si="1"/>
-        <v>2.1305819753086421</v>
+        <v>1.4096244404606424</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="55" t="s">
-        <v>123</v>
+      <c r="C11" s="46" t="s">
+        <v>117</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(E5:E9)</f>
-        <v>310726.99259259261</v>
-      </c>
-      <c r="F11" s="56">
+        <v>213121.83223419264</v>
+      </c>
+      <c r="F11" s="47">
         <f>E11/D2</f>
-        <v>5.1787832098765438</v>
+        <v>3.5520305372365439</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="55" t="s">
-        <v>122</v>
+      <c r="C12" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="E12" s="4">
         <f>E11-D2</f>
-        <v>250726.99259259261</v>
-      </c>
-      <c r="F12" s="56"/>
+        <v>153121.83223419264</v>
+      </c>
+      <c r="F12" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectDocumentation/Appendices/Appendix O - Financials/Financials.xlsx
+++ b/ProjectDocumentation/Appendices/Appendix O - Financials/Financials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\ConstructionChaos\ProjectDocumentation\Appendices\Appendix O - Financials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\RagTest\ProjectDocumentation\Appendices\Appendix O - Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08E4DB5-3B02-43F8-BCE0-028956743A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A361DAE-EECB-43E5-9360-70C31330A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{7FF5E3A2-4F9E-48CF-947F-F08E82E5B58C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7FF5E3A2-4F9E-48CF-947F-F08E82E5B58C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planned Change Data" sheetId="5" r:id="rId1"/>
@@ -605,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +627,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +730,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -806,9 +812,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,6 +820,17 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -844,17 +858,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1065,6 +1073,91 @@
         <c:axId val="1436506271"/>
         <c:axId val="1436505439"/>
       </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Estimated Revenue'!$F$14:$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Adoption rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Estimated Revenue'!$F$16:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07F1-48B1-8E59-D46ECFA11C89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1628536287"/>
+        <c:axId val="1628537727"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1436506271"/>
         <c:scaling>
@@ -1137,6 +1230,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Revenue (GBP)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1172,6 +1320,123 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1628537727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Adoption Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1628536287"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1628536287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1628537727"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3172,224 +3437,249 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6922CE-43D5-C3F9-2CF5-B2843E96C79D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF9DDFF-1A9C-BBA1-3401-3F238E448DC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="5934075" y="2705099"/>
           <a:ext cx="5991225" cy="3009901"/>
-          <a:chOff x="6276975" y="3590924"/>
-          <a:chExt cx="5991225" cy="3009901"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF9DDFF-1A9C-BBA1-3401-3F238E448DC0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6276975" y="3590924"/>
-            <a:ext cx="5991225" cy="3009901"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 3869"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="Picture 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB37515-FF94-440C-A29E-DB32BA63F05D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9435429" y="3657599"/>
-            <a:ext cx="2747046" cy="2706985"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3869"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
           <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129504</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB37515-FF94-440C-A29E-DB32BA63F05D}"/>
             </a:ext>
           </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40219562-FA8B-AD87-224F-CC9139A96C4C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="6334125" y="4379343"/>
-            <a:ext cx="4486274" cy="2183381"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA48D7A-E807-74DB-4F30-9053C75D92EB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6324600" y="3657599"/>
-            <a:ext cx="2085975" cy="530658"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1"/>
-              <a:t>Play data for a 10 minute, 4 player session</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9092529" y="2771774"/>
+          <a:ext cx="2747046" cy="2706985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40219562-FA8B-AD87-224F-CC9139A96C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5991225" y="3493518"/>
+          <a:ext cx="4486274" cy="2183381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA48D7A-E807-74DB-4F30-9053C75D92EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="2771774"/>
+          <a:ext cx="2085975" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1"/>
+            <a:t>Play data for a 10 minute, 4 player session</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4292,7 +4582,7 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,20 +4608,20 @@
       <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="I3" s="48" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="I3" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
@@ -4878,8 +5168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BCA734-8412-4D5C-9A3A-B2E4978BBE02}">
   <dimension ref="B2:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4917,41 +5207,41 @@
       <c r="G5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="47" t="s">
         <v>125</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="47" t="s">
         <v>128</v>
       </c>
       <c r="Q5" s="16"/>
-      <c r="R5" s="57" t="s">
+      <c r="R5" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="T5" s="57" t="s">
+      <c r="T5" s="47" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4982,14 +5272,14 @@
         <f>(J6-50)*$D$19</f>
         <v>38.527999999999999</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="42">
         <f>I6*$C$9*$C$14*$C$12</f>
         <v>469226.85</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="48">
         <v>150000</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="44">
         <f>L6-M6</f>
         <v>319226.84999999998</v>
       </c>
@@ -5044,14 +5334,14 @@
         <f t="shared" ref="K7:K10" si="1">(J7-50)*$D$19</f>
         <v>173.05600000000001</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="42">
         <f t="shared" ref="L7:L10" si="2">I7*$C$9*$C$14*$C$12</f>
         <v>1877041.3499999999</v>
       </c>
-      <c r="M7" s="58">
+      <c r="M7" s="48">
         <v>150000</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="44">
         <f t="shared" ref="N7:N9" si="3">L7-M7</f>
         <v>1727041.3499999999</v>
       </c>
@@ -5106,14 +5396,14 @@
         <f t="shared" si="1"/>
         <v>397.18400000000003</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="42">
         <f t="shared" si="2"/>
         <v>4223309.55</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M8" s="48">
         <v>150000</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="44">
         <f t="shared" si="3"/>
         <v>4073309.55</v>
       </c>
@@ -5169,14 +5459,14 @@
         <f t="shared" si="1"/>
         <v>621.44000000000005</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="42">
         <f t="shared" si="2"/>
         <v>6569577.7499999991</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M9" s="48">
         <v>150000</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="44">
         <f t="shared" si="3"/>
         <v>6419577.7499999991</v>
       </c>
@@ -5222,14 +5512,14 @@
         <f t="shared" si="1"/>
         <v>845.69600000000003</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="42">
         <f t="shared" si="2"/>
         <v>8915845.9499999993</v>
       </c>
-      <c r="M10" s="58">
+      <c r="M10" s="48">
         <v>150000</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="44">
         <f>L10-M10</f>
         <v>8765845.9499999993</v>
       </c>
@@ -5262,20 +5552,20 @@
       <c r="C11" s="40">
         <v>0.1</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="43">
         <v>0.125</v>
       </c>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -5338,7 +5628,7 @@
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5353,12 +5643,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
@@ -5509,11 +5799,11 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I15" s="6" t="s">
@@ -5661,27 +5951,27 @@
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G2" s="9"/>
-      <c r="H2" s="52">
+      <c r="H2" s="56">
         <v>2023</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56">
         <v>2024</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
     </row>
     <row r="3" spans="2:24" ht="27" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
@@ -5867,7 +6157,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:H20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5876,74 +6166,74 @@
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="3.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>1700000000</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="64">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="65">
         <f>C3*C2</f>
         <v>952000000.00000012</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="64">
         <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="65">
         <f>C5*C4</f>
         <v>700672000.00000012</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="64">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="65">
         <f>C7*C6</f>
         <v>3503360.0000000005</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="64">
         <v>0.1</v>
       </c>
     </row>
@@ -5951,7 +6241,7 @@
       <c r="B10" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <f>C9*C8</f>
         <v>350336.00000000006</v>
       </c>
@@ -5965,7 +6255,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="41">
+      <c r="F12" s="61">
         <f>C10</f>
         <v>350336.00000000006</v>
       </c>
@@ -5975,26 +6265,26 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="59" t="s">
         <v>71</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="59" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="54"/>
-      <c r="F15" s="56"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="56"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E16" s="19" t="s">
@@ -6003,7 +6293,7 @@
       <c r="F16" s="18">
         <v>0.01</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="48">
         <f>ROUNDDOWN(F16*$F$12,0)</f>
         <v>3503</v>
       </c>
@@ -6019,7 +6309,7 @@
       <c r="F17" s="18">
         <v>0.03</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="48">
         <f t="shared" ref="G17:G20" si="0">ROUNDDOWN(F17*$F$12,0)</f>
         <v>10510</v>
       </c>
@@ -6035,7 +6325,7 @@
       <c r="F18" s="18">
         <v>0.05</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="48">
         <f t="shared" si="0"/>
         <v>17516</v>
       </c>
@@ -6051,7 +6341,7 @@
       <c r="F19" s="18">
         <v>0.05</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="48">
         <f t="shared" si="0"/>
         <v>17516</v>
       </c>
@@ -6067,7 +6357,7 @@
       <c r="F20" s="18">
         <v>0.05</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="48">
         <f t="shared" si="0"/>
         <v>17516</v>
       </c>
@@ -6093,7 +6383,7 @@
   <dimension ref="B3:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6121,7 +6411,7 @@
         <f>'Estimated Revenue'!G16</f>
         <v>3503</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="51">
         <f>C4*'Fixed and Variable Costs'!$D$10</f>
         <v>1050.8999999999999</v>
       </c>
@@ -6134,7 +6424,7 @@
         <f>'Estimated Revenue'!G17</f>
         <v>10510</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="51">
         <f>C5*'Fixed and Variable Costs'!$D$10</f>
         <v>3153</v>
       </c>
@@ -6147,7 +6437,7 @@
         <f>'Estimated Revenue'!G18</f>
         <v>17516</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="51">
         <f>C6*'Fixed and Variable Costs'!$D$10</f>
         <v>5254.8</v>
       </c>
@@ -6160,7 +6450,7 @@
         <f>'Estimated Revenue'!G19</f>
         <v>17516</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="51">
         <f>C7*'Fixed and Variable Costs'!$D$10</f>
         <v>5254.8</v>
       </c>
@@ -6173,7 +6463,7 @@
         <f>'Estimated Revenue'!G20</f>
         <v>17516</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="51">
         <f>C8*'Fixed and Variable Costs'!$D$10</f>
         <v>5254.8</v>
       </c>
@@ -6187,7 +6477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF90510-A26B-4CA8-92EE-B37B96E32CAC}">
   <dimension ref="C2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -6731,7 +7021,7 @@
   <dimension ref="C1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,27 +7147,27 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(E5:E9)</f>
         <v>213121.83223419264</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <f>E11/D2</f>
         <v>3.5520305372365439</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>116</v>
       </c>
       <c r="E12" s="4">
         <f>E11-D2</f>
         <v>153121.83223419264</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectDocumentation/Appendices/Appendix O - Financials/Financials.xlsx
+++ b/ProjectDocumentation/Appendices/Appendix O - Financials/Financials.xlsx
@@ -1,34 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\RagTest\ProjectDocumentation\Appendices\Appendix O - Financials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\ConstructionChaos\ProjectDocumentation\Appendices\Appendix O - Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A361DAE-EECB-43E5-9360-70C31330A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFAB597-7905-4D58-87EE-18458BC27ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7FF5E3A2-4F9E-48CF-947F-F08E82E5B58C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="641" xr2:uid="{7FF5E3A2-4F9E-48CF-947F-F08E82E5B58C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planned Change Data" sheetId="5" r:id="rId1"/>
     <sheet name="Unity Relay Costs" sheetId="7" r:id="rId2"/>
-    <sheet name="Fixed and Variable Costs" sheetId="1" r:id="rId3"/>
-    <sheet name="Yr One Timeline" sheetId="3" r:id="rId4"/>
-    <sheet name="Estimated Revenue" sheetId="2" r:id="rId5"/>
-    <sheet name="Itch Fees" sheetId="8" r:id="rId6"/>
+    <sheet name="Itch Fees" sheetId="8" r:id="rId3"/>
+    <sheet name="Fixed and Variable Costs" sheetId="1" r:id="rId4"/>
+    <sheet name="Yr One Timeline" sheetId="3" r:id="rId5"/>
+    <sheet name="Estimated Revenue" sheetId="2" r:id="rId6"/>
     <sheet name="Cost Walk" sheetId="4" r:id="rId7"/>
     <sheet name="ROI" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v5.0" hidden="1">'Cost Walk'!$C$3:$C$15</definedName>
     <definedName name="_xlchart.v5.1" hidden="1">'Cost Walk'!$D$2</definedName>
+    <definedName name="_xlchart.v5.10" hidden="1">'Cost Walk'!$D$2</definedName>
+    <definedName name="_xlchart.v5.11" hidden="1">'Cost Walk'!$D$3:$D$43</definedName>
+    <definedName name="_xlchart.v5.12" hidden="1">'Cost Walk'!$C$3:$C$43</definedName>
+    <definedName name="_xlchart.v5.13" hidden="1">'Cost Walk'!$D$2</definedName>
+    <definedName name="_xlchart.v5.14" hidden="1">'Cost Walk'!$D$3:$D$43</definedName>
+    <definedName name="_xlchart.v5.15" hidden="1">'Cost Walk'!$C$3:$C$43</definedName>
+    <definedName name="_xlchart.v5.16" hidden="1">'Cost Walk'!$D$2</definedName>
+    <definedName name="_xlchart.v5.17" hidden="1">'Cost Walk'!$D$3:$D$43</definedName>
     <definedName name="_xlchart.v5.2" hidden="1">'Cost Walk'!$D$3:$D$15</definedName>
     <definedName name="_xlchart.v5.3" hidden="1">'Cost Walk'!$C$3:$C$43</definedName>
     <definedName name="_xlchart.v5.4" hidden="1">'Cost Walk'!$D$2</definedName>
     <definedName name="_xlchart.v5.5" hidden="1">'Cost Walk'!$D$3:$D$43</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">'Cost Walk'!$C$3:$C$43</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">'Cost Walk'!$D$2</definedName>
+    <definedName name="_xlchart.v5.8" hidden="1">'Cost Walk'!$D$3:$D$43</definedName>
+    <definedName name="_xlchart.v5.9" hidden="1">'Cost Walk'!$C$3:$C$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,10 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
-  <si>
-    <t>Fixed Costs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
   <si>
     <t>Category</t>
   </si>
@@ -75,9 +84,6 @@
     <t>3rd Party Assets</t>
   </si>
   <si>
-    <t>Variable Costs</t>
-  </si>
-  <si>
     <t>Asset creation and Code</t>
   </si>
   <si>
@@ -111,9 +117,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Total Fixed Costs</t>
-  </si>
-  <si>
     <t>Cost Estimations</t>
   </si>
   <si>
@@ -288,9 +291,6 @@
     <t>Approx cost</t>
   </si>
   <si>
-    <t>3 x PC</t>
-  </si>
-  <si>
     <t>Improvement</t>
   </si>
   <si>
@@ -354,9 +354,6 @@
     <t>Assumed level of maintenance</t>
   </si>
   <si>
-    <t>Ad Costs (5 weeks)</t>
-  </si>
-  <si>
     <t>Labour Cost (GBP)</t>
   </si>
   <si>
@@ -399,12 +396,6 @@
     <t>Estimated number of target audience captured</t>
   </si>
   <si>
-    <t>Total Investor profit</t>
-  </si>
-  <si>
-    <t>Total investor share</t>
-  </si>
-  <si>
     <t>Assumption</t>
   </si>
   <si>
@@ -417,9 +408,6 @@
     <t>Number of Units Sold</t>
   </si>
   <si>
-    <t>Number of Players</t>
-  </si>
-  <si>
     <t>Number of concurrent players</t>
   </si>
   <si>
@@ -486,30 +474,15 @@
     <t>Cost per concurrent user above 50</t>
   </si>
   <si>
-    <t>Variable Labour Costs</t>
-  </si>
-  <si>
-    <t>Total Variable Labour Costs</t>
-  </si>
-  <si>
     <t>Unity Relay</t>
   </si>
   <si>
-    <t>Itch Cost</t>
-  </si>
-  <si>
     <t>Itch.io Fee (5%)</t>
   </si>
   <si>
-    <t>Total Costs (excl. Maintenance &amp; yearly overheads)</t>
-  </si>
-  <si>
     <t>5% of £6 - per unit sold</t>
   </si>
   <si>
-    <t>Annual Costs</t>
-  </si>
-  <si>
     <t>Cost of concurrent player &gt; 50 (per month)</t>
   </si>
   <si>
@@ -532,18 +505,59 @@
   </si>
   <si>
     <t>Maintenance (117 hours)</t>
+  </si>
+  <si>
+    <t>Cumulative Number of Players</t>
+  </si>
+  <si>
+    <t>Labour Costs</t>
+  </si>
+  <si>
+    <t>Setup Costs</t>
+  </si>
+  <si>
+    <t>Recurring Expenditure</t>
+  </si>
+  <si>
+    <t>Total Setup Costs</t>
+  </si>
+  <si>
+    <t>Total Costs (excl. Maintenance &amp; recurring expenditure)</t>
+  </si>
+  <si>
+    <t>Total Labour Costs</t>
+  </si>
+  <si>
+    <t>Investor Profit Share</t>
+  </si>
+  <si>
+    <t>Total investor profit share</t>
+  </si>
+  <si>
+    <t>Total investor profit, after investment</t>
+  </si>
+  <si>
+    <t>4 x PC</t>
+  </si>
+  <si>
+    <t>Itch.io Cost</t>
+  </si>
+  <si>
+    <t>Ad Costs (11 weeks)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -730,7 +744,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -818,7 +832,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -828,9 +841,11 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,11 +873,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1033,7 +1060,7 @@
             <c:numRef>
               <c:f>'Estimated Revenue'!$H$16:$H$20</c:f>
               <c:numCache>
-                <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"£"* #,##0_-;\-"£"* #,##0_-;_-"£"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>21018</c:v>
@@ -1285,7 +1312,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1432,6 +1459,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1628537727"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1492,12 +1520,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1593,27 +1616,13 @@
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
   <cx:fmtOvrs>
     <cx:fmtOvr idx="0">
       <cx:spPr>
@@ -3692,13 +3701,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
+      <xdr:rowOff>8281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>215347</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3713,8 +3722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6269935" y="927652"/>
-          <a:ext cx="198782" cy="182218"/>
+          <a:off x="5632174" y="728868"/>
+          <a:ext cx="132522" cy="190501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3755,13 +3764,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>226943</xdr:colOff>
+      <xdr:colOff>157370</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19879</xdr:rowOff>
+      <xdr:rowOff>19878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>347869</xdr:colOff>
+      <xdr:colOff>99392</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
@@ -3778,8 +3787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5842552" y="930966"/>
-          <a:ext cx="501926" cy="187186"/>
+          <a:off x="5772979" y="930965"/>
+          <a:ext cx="190500" cy="187187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3820,13 +3829,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>354496</xdr:colOff>
+      <xdr:colOff>107675</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>23190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>248478</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
@@ -3843,8 +3852,73 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6351105" y="1124777"/>
-          <a:ext cx="655982" cy="167309"/>
+          <a:off x="5971762" y="1124777"/>
+          <a:ext cx="323021" cy="167309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198784</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>18221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201003E1-2328-403E-BFA1-435C7B948A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6311349" y="1310308"/>
+          <a:ext cx="198781" cy="188843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3885,78 +3959,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>258417</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>18222</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>74542</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201003E1-2328-403E-BFA1-435C7B948A26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7017026" y="1310309"/>
-          <a:ext cx="578125" cy="172278"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>82827</xdr:colOff>
+      <xdr:colOff>157370</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>248478</xdr:colOff>
+      <xdr:colOff>248477</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3973,8 +3982,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7603436" y="1499151"/>
-          <a:ext cx="3975651" cy="173936"/>
+          <a:off x="6518413" y="1499151"/>
+          <a:ext cx="3072847" cy="173936"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4131,10 +4140,10 @@
       <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
@@ -4170,8 +4179,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5414961" y="2462211"/>
-              <a:ext cx="7053263" cy="4081463"/>
+              <a:off x="5434011" y="2462211"/>
+              <a:ext cx="8841243" cy="5576889"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4203,16 +4212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
@@ -4248,7 +4257,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5410200" y="6858000"/>
+              <a:off x="5400675" y="8229600"/>
               <a:ext cx="7053263" cy="4081463"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4581,8 +4590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4D4C82-6236-4D07-969B-5C8BAB78A477}">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4608,59 +4617,59 @@
       <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-      <c r="I3" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+      <c r="C3" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="I3" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C5" s="28">
         <v>133.33333333333331</v>
@@ -4700,7 +4709,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C6" s="28">
         <v>20</v>
@@ -4740,7 +4749,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C7" s="28">
         <v>8.8888888888888893</v>
@@ -4780,7 +4789,7 @@
     </row>
     <row r="8" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C8" s="28">
         <v>8.8888888888888893</v>
@@ -4820,7 +4829,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C9" s="28">
         <v>13.333333333333332</v>
@@ -4860,7 +4869,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C10" s="28">
         <v>4.4444444444444446</v>
@@ -4900,7 +4909,7 @@
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C11" s="28">
         <v>44.444444444444443</v>
@@ -4940,7 +4949,7 @@
     </row>
     <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="28">
         <v>22.222222222222221</v>
@@ -4980,7 +4989,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13" s="28">
         <v>4.4444444444444446</v>
@@ -5020,7 +5029,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" s="28">
         <v>8.8888888888888893</v>
@@ -5060,7 +5069,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C15" s="29">
         <f>SUM(C5:C14)</f>
@@ -5105,7 +5114,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C16" s="29">
         <f>C15/4</f>
@@ -5131,7 +5140,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C17" s="27">
         <f>C16/40</f>
@@ -5166,10 +5175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BCA734-8412-4D5C-9A3A-B2E4978BBE02}">
-  <dimension ref="B2:T19"/>
+  <dimension ref="B2:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5189,65 +5198,65 @@
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G2" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="G5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="S5" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="T5" s="46" t="s">
         <v>122</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="S5" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
@@ -5256,15 +5265,15 @@
       <c r="G6" s="19">
         <v>1</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="47">
         <f>'Estimated Revenue'!G16</f>
         <v>3503</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="47">
         <f>H6</f>
         <v>3503</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="47">
         <f>ROUNDUP(I6*$C$11, 0)</f>
         <v>351</v>
       </c>
@@ -5276,7 +5285,7 @@
         <f>I6*$C$9*$C$14*$C$12</f>
         <v>469226.85</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="47">
         <v>150000</v>
       </c>
       <c r="N6" s="44">
@@ -5307,26 +5316,26 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C7" s="7">
         <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G7" s="19">
         <v>2</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="47">
         <f>'Estimated Revenue'!G17</f>
         <v>10510</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="47">
         <f>I6+H7</f>
         <v>14013</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="47">
         <f t="shared" ref="J7:J10" si="0">ROUNDUP(I7*$C$11, 0)</f>
         <v>1402</v>
       </c>
@@ -5338,7 +5347,7 @@
         <f t="shared" ref="L7:L10" si="2">I7*$C$9*$C$14*$C$12</f>
         <v>1877041.3499999999</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="47">
         <v>150000</v>
       </c>
       <c r="N7" s="44">
@@ -5369,26 +5378,26 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C8" s="7">
         <v>1071.5999999999999</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G8" s="19">
         <v>3</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="47">
         <f>'Estimated Revenue'!G18</f>
         <v>17516</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="47">
         <f t="shared" ref="I8:I10" si="9">I7+H8</f>
         <v>31529</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="47">
         <f t="shared" si="0"/>
         <v>3153</v>
       </c>
@@ -5400,7 +5409,7 @@
         <f t="shared" si="2"/>
         <v>4223309.55</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="47">
         <v>150000</v>
       </c>
       <c r="N8" s="44">
@@ -5431,27 +5440,27 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C9" s="7">
         <f>C8/C6</f>
         <v>267.89999999999998</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G9" s="19">
         <v>4</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="47">
         <f>'Estimated Revenue'!G19</f>
         <v>17516</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="47">
         <f t="shared" si="9"/>
         <v>49045</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="47">
         <f t="shared" si="0"/>
         <v>4905</v>
       </c>
@@ -5463,7 +5472,7 @@
         <f t="shared" si="2"/>
         <v>6569577.7499999991</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="47">
         <v>150000</v>
       </c>
       <c r="N9" s="44">
@@ -5496,15 +5505,15 @@
       <c r="G10" s="19">
         <v>5</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="47">
         <f>'Estimated Revenue'!G20</f>
         <v>17516</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="47">
         <f t="shared" si="9"/>
         <v>66561</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="47">
         <f t="shared" si="0"/>
         <v>6657</v>
       </c>
@@ -5516,7 +5525,7 @@
         <f t="shared" si="2"/>
         <v>8915845.9499999993</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="47">
         <v>150000</v>
       </c>
       <c r="N10" s="44">
@@ -5547,29 +5556,29 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C11" s="40">
         <v>0.1</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C12" s="43">
         <v>0.125</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -5577,24 +5586,24 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C15" s="7">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C18" s="7">
         <v>0.16</v>
@@ -5604,9 +5613,9 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C19" s="7">
         <v>0.16</v>
@@ -5614,6 +5623,72 @@
       <c r="D19" s="7">
         <f>C19*$C$15</f>
         <v>0.128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G29" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="69">
+        <v>1</v>
+      </c>
+      <c r="H30" s="70">
+        <v>351</v>
+      </c>
+      <c r="I30" s="71">
+        <v>952.66844159999994</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="69">
+        <v>2</v>
+      </c>
+      <c r="H31" s="70">
+        <v>1402</v>
+      </c>
+      <c r="I31" s="71">
+        <v>4729.4075135999992</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="69">
+        <v>3</v>
+      </c>
+      <c r="H32" s="70">
+        <v>3153</v>
+      </c>
+      <c r="I32" s="71">
+        <v>11022.811468800001</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="69">
+        <v>4</v>
+      </c>
+      <c r="H33" s="70">
+        <v>4905</v>
+      </c>
+      <c r="I33" s="71">
+        <v>17317.751424000002</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="69">
+        <v>5</v>
+      </c>
+      <c r="H34" s="70">
+        <v>6657</v>
+      </c>
+      <c r="I34" s="71">
+        <v>23612.691379199998</v>
       </c>
     </row>
   </sheetData>
@@ -5624,11 +5699,106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15D7712-3739-414C-9146-9A65A7641733}">
+  <dimension ref="B3:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="69">
+        <v>1</v>
+      </c>
+      <c r="C4" s="69">
+        <f>'Estimated Revenue'!G16</f>
+        <v>3503</v>
+      </c>
+      <c r="D4" s="72">
+        <f>C4*'Fixed and Variable Costs'!$D$10</f>
+        <v>1050.8999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="69">
+        <v>2</v>
+      </c>
+      <c r="C5" s="69">
+        <f>'Estimated Revenue'!G17</f>
+        <v>10510</v>
+      </c>
+      <c r="D5" s="72">
+        <f>C5*'Fixed and Variable Costs'!$D$10</f>
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="69">
+        <v>3</v>
+      </c>
+      <c r="C6" s="69">
+        <f>'Estimated Revenue'!G18</f>
+        <v>17516</v>
+      </c>
+      <c r="D6" s="72">
+        <f>C6*'Fixed and Variable Costs'!$D$10</f>
+        <v>5254.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="69">
+        <v>4</v>
+      </c>
+      <c r="C7" s="69">
+        <f>'Estimated Revenue'!G19</f>
+        <v>17516</v>
+      </c>
+      <c r="D7" s="72">
+        <f>C7*'Fixed and Variable Costs'!$D$10</f>
+        <v>5254.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="69">
+        <v>5</v>
+      </c>
+      <c r="C8" s="69">
+        <f>'Estimated Revenue'!G20</f>
+        <v>17516</v>
+      </c>
+      <c r="D8" s="72">
+        <f>C8*'Fixed and Variable Costs'!$D$10</f>
+        <v>5254.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE897970-9A29-45BC-B385-AE89B354F6B4}">
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5643,51 +5813,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="8">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="8">
         <v>100</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5698,127 +5868,127 @@
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="8">
         <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="8">
         <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8">
         <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="64" t="s">
+        <v>151</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
         <v>4500</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D10" s="8">
         <v>0.3</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D11" s="8">
         <f>'Unity Relay Costs'!$D$19</f>
         <v>0.128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D12" s="8">
         <f>'Unity Relay Costs'!$D$18</f>
         <v>0.128</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8">
         <v>135</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I14" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
+      <c r="I14" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I15" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I16" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" s="30">
         <f>'Planned Change Data'!C15</f>
@@ -5831,7 +6001,7 @@
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="I17" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17" s="30">
         <f>'Planned Change Data'!D15</f>
@@ -5844,7 +6014,7 @@
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="I18" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J18" s="30">
         <f>'Planned Change Data'!E15</f>
@@ -5857,7 +6027,7 @@
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="I19" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J19" s="30">
         <f>'Planned Change Data'!F15</f>
@@ -5870,7 +6040,7 @@
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="J20" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K20" s="3">
         <f>SUM(K16:K19)</f>
@@ -5879,11 +6049,11 @@
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="J21" s="2" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="K21" s="4">
         <f>SUM(D3:D4)</f>
-        <v>4600</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="22" spans="5:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5893,11 +6063,11 @@
     </row>
     <row r="23" spans="5:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J23" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K23" s="4">
         <f>K21+K20</f>
-        <v>56943.703703703701</v>
+        <v>58443.703703703701</v>
       </c>
     </row>
     <row r="24" spans="5:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -5907,7 +6077,7 @@
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="J25" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K25" s="4">
         <f>'Cost Walk'!L12*D7</f>
@@ -5931,12 +6101,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D885B389-8450-4F8D-89E4-44064002974B}">
   <dimension ref="B2:X9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G2" sqref="G2:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5946,110 +6116,110 @@
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="24" width="5.7109375" customWidth="1"/>
+    <col min="8" max="24" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G2" s="9"/>
-      <c r="H2" s="56">
+      <c r="H2" s="59">
         <v>2023</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56">
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59">
         <v>2024</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
     </row>
     <row r="3" spans="2:24" ht="27" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="N3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="S3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="T3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="U3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="X3" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="30">
         <f>'Planned Change Data'!C16</f>
@@ -6063,12 +6233,12 @@
         <v>45122</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="30">
         <f>'Planned Change Data'!D16</f>
@@ -6083,12 +6253,12 @@
         <v>45150</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="30">
         <f>'Planned Change Data'!E16</f>
@@ -6103,12 +6273,12 @@
         <v>45190</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="30">
         <f>'Planned Change Data'!F16</f>
@@ -6123,12 +6293,12 @@
         <v>45218</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>500</v>
@@ -6152,12 +6322,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67158FD0-2E0B-489D-94B1-3AAB21E656DA}">
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E11" sqref="E11:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6171,75 +6341,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="63">
+      <c r="B2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="52">
         <v>1700000000</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="64">
+      <c r="B3" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="53">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="65">
+      <c r="B4" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="54">
         <f>C3*C2</f>
         <v>952000000.00000012</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="64">
+      <c r="B5" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="53">
         <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="65">
+      <c r="B6" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="54">
         <f>C5*C4</f>
         <v>700672000.00000012</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="64">
+      <c r="B7" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="53">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="65">
+      <c r="B8" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="54">
         <f>C7*C6</f>
         <v>3503360.0000000005</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="64">
+      <c r="B9" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="53">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C10" s="41">
         <f>C9*C8</f>
@@ -6248,14 +6418,14 @@
     </row>
     <row r="11" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="F11" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="61">
+      <c r="F12" s="50">
         <f>C10</f>
         <v>350336.00000000006</v>
       </c>
@@ -6265,103 +6435,103 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>71</v>
+      <c r="E14" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>68</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="58"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="60"/>
+        <v>67</v>
+      </c>
+      <c r="H15" s="63"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E16" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F16" s="18">
         <v>0.01</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="47">
         <f>ROUNDDOWN(F16*$F$12,0)</f>
         <v>3503</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="65">
         <f>G16*$H$12</f>
         <v>21018</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F17" s="18">
         <v>0.03</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="47">
         <f t="shared" ref="G17:G20" si="0">ROUNDDOWN(F17*$F$12,0)</f>
         <v>10510</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="65">
         <f>G17*$H$12</f>
         <v>63060</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="18">
         <v>0.05</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="47">
         <f t="shared" si="0"/>
         <v>17516</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="65">
         <f>G18*$H$12</f>
         <v>105096</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F19" s="18">
         <v>0.05</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="47">
         <f t="shared" si="0"/>
         <v>17516</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="65">
         <f>G19*$H$12</f>
         <v>105096</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" s="18">
         <v>0.05</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="47">
         <f t="shared" si="0"/>
         <v>17516</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="65">
         <f>G20*$H$12</f>
         <v>105096</v>
       </c>
@@ -6378,107 +6548,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15D7712-3739-414C-9146-9A65A7641733}">
-  <dimension ref="B3:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19">
-        <f>'Estimated Revenue'!G16</f>
-        <v>3503</v>
-      </c>
-      <c r="D4" s="51">
-        <f>C4*'Fixed and Variable Costs'!$D$10</f>
-        <v>1050.8999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
-        <v>2</v>
-      </c>
-      <c r="C5" s="19">
-        <f>'Estimated Revenue'!G17</f>
-        <v>10510</v>
-      </c>
-      <c r="D5" s="51">
-        <f>C5*'Fixed and Variable Costs'!$D$10</f>
-        <v>3153</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
-        <v>3</v>
-      </c>
-      <c r="C6" s="19">
-        <f>'Estimated Revenue'!G18</f>
-        <v>17516</v>
-      </c>
-      <c r="D6" s="51">
-        <f>C6*'Fixed and Variable Costs'!$D$10</f>
-        <v>5254.8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19">
-        <f>'Estimated Revenue'!G19</f>
-        <v>17516</v>
-      </c>
-      <c r="D7" s="51">
-        <f>C7*'Fixed and Variable Costs'!$D$10</f>
-        <v>5254.8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19">
-        <f>'Estimated Revenue'!G20</f>
-        <v>17516</v>
-      </c>
-      <c r="D8" s="51">
-        <f>C8*'Fixed and Variable Costs'!$D$10</f>
-        <v>5254.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF90510-A26B-4CA8-92EE-B37B96E32CAC}">
   <dimension ref="C2:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6493,31 +6568,31 @@
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="36">
+        <v>42</v>
+      </c>
+      <c r="D3" s="66">
         <f>'Estimated Revenue'!H16</f>
         <v>21018</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="8">
+        <v>40</v>
+      </c>
+      <c r="D4" s="65">
         <v>60000</v>
       </c>
       <c r="F4" s="17"/>
       <c r="I4" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -6527,19 +6602,19 @@
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="36">
+        <v>43</v>
+      </c>
+      <c r="D5" s="66">
         <f>'Fixed and Variable Costs'!K21 * -1</f>
-        <v>-4600</v>
+        <v>-6100</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="36">
+        <v>13</v>
+      </c>
+      <c r="D6" s="66">
         <f>'Fixed and Variable Costs'!K16 * -1</f>
         <v>-4840</v>
       </c>
@@ -6547,41 +6622,41 @@
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="36">
+        <v>14</v>
+      </c>
+      <c r="D7" s="66">
         <f>'Fixed and Variable Costs'!K17 * -1</f>
         <v>-15685.185185185184</v>
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="36">
+        <v>9</v>
+      </c>
+      <c r="D8" s="66">
         <f>'Fixed and Variable Costs'!K18 * -1</f>
         <v>-22407.407407407409</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I8" s="15">
         <f>'Yr One Timeline'!D9</f>
@@ -6602,15 +6677,15 @@
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="36">
+        <v>10</v>
+      </c>
+      <c r="D9" s="66">
         <f>'Fixed and Variable Costs'!K19 * -1</f>
         <v>-9411.1111111111113</v>
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I9" s="15">
         <v>45291</v>
@@ -6630,15 +6705,15 @@
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="36">
+        <v>147</v>
+      </c>
+      <c r="D10" s="66">
         <f>I12*'Fixed and Variable Costs'!D7 * -1</f>
         <v>-2925</v>
       </c>
       <c r="E10" s="1"/>
       <c r="H10" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
         <f>I9-I8</f>
@@ -6663,15 +6738,15 @@
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="36">
+        <v>160</v>
+      </c>
+      <c r="D11" s="66">
         <f>I11*'Fixed and Variable Costs'!D13 * -1</f>
         <v>-1485</v>
       </c>
       <c r="E11" s="1"/>
       <c r="H11" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
         <f>ROUNDUP(I10/7, 0)</f>
@@ -6696,15 +6771,15 @@
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="36">
+        <v>137</v>
+      </c>
+      <c r="D12" s="66">
         <f>'Unity Relay Costs'!T6 *-1</f>
         <v>-952.66844159999994</v>
       </c>
       <c r="F12" s="17"/>
       <c r="H12" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
         <f>ROUND(I10*$L$4*8, 0)</f>
@@ -6729,281 +6804,281 @@
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="36">
+        <v>1</v>
+      </c>
+      <c r="D13" s="66">
         <f>'Fixed and Variable Costs'!D9*-1</f>
         <v>-4500</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="36">
+        <v>146</v>
+      </c>
+      <c r="D14" s="66">
         <f>'Itch Fees'!D4*-1</f>
         <v>-1050.8999999999999</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="8">
+        <v>53</v>
+      </c>
+      <c r="D15" s="65">
         <f>SUM(D3:D14)</f>
-        <v>13160.727854696301</v>
+        <v>11660.727854696301</v>
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="8">
+        <v>55</v>
+      </c>
+      <c r="D16" s="65">
         <f>'Estimated Revenue'!H17</f>
         <v>63060</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="8">
+        <v>71</v>
+      </c>
+      <c r="D17" s="65">
         <f>J12*'Fixed and Variable Costs'!D7*-1</f>
         <v>-14600</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="8">
+        <v>59</v>
+      </c>
+      <c r="D18" s="65">
         <f>J11*'Fixed and Variable Costs'!D13*-1</f>
         <v>-7155</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="8">
+        <v>137</v>
+      </c>
+      <c r="D19" s="65">
         <f>'Unity Relay Costs'!T7*-1</f>
         <v>-4729.4075135999992</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="36">
+        <v>1</v>
+      </c>
+      <c r="D20" s="66">
         <f>'Fixed and Variable Costs'!D9*-1</f>
         <v>-4500</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="36">
+        <v>146</v>
+      </c>
+      <c r="D21" s="66">
         <f>'Itch Fees'!D5*-1</f>
         <v>-3153</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="8">
+        <v>57</v>
+      </c>
+      <c r="D22" s="65">
         <f>SUM(D15:D21)</f>
-        <v>42083.320341096303</v>
+        <v>40583.320341096303</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="8">
+        <v>58</v>
+      </c>
+      <c r="D23" s="65">
         <f>'Estimated Revenue'!H18</f>
         <v>105096</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="8">
+        <v>70</v>
+      </c>
+      <c r="D24" s="65">
         <f>K12*'Fixed and Variable Costs'!D7*-1</f>
         <v>-14550</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="8">
+        <v>56</v>
+      </c>
+      <c r="D25" s="65">
         <f>K11*'Fixed and Variable Costs'!D13*-1</f>
         <v>-7020</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="8">
+        <v>137</v>
+      </c>
+      <c r="D26" s="65">
         <f>'Unity Relay Costs'!T8*-1</f>
         <v>-11022.811468800001</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="36">
+        <v>1</v>
+      </c>
+      <c r="D27" s="66">
         <f>'Fixed and Variable Costs'!D9*-1</f>
         <v>-4500</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="36">
+        <v>146</v>
+      </c>
+      <c r="D28" s="66">
         <f>'Itch Fees'!D6*-1</f>
         <v>-5254.8</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="8">
+        <v>60</v>
+      </c>
+      <c r="D29" s="65">
         <f>SUM(D22:D28)</f>
-        <v>104831.70887229631</v>
+        <v>103331.70887229631</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="8">
+        <v>62</v>
+      </c>
+      <c r="D30" s="65">
         <f>'Estimated Revenue'!H19</f>
         <v>105096</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="8">
+        <v>70</v>
+      </c>
+      <c r="D31" s="65">
         <f>L12*'Fixed and Variable Costs'!D7*-1</f>
         <v>-14550</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="8">
+        <v>56</v>
+      </c>
+      <c r="D32" s="65">
         <f>L11*'Fixed and Variable Costs'!D13*-1</f>
         <v>-7020</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="8">
+        <v>137</v>
+      </c>
+      <c r="D33" s="65">
         <f>'Unity Relay Costs'!T9*-1</f>
         <v>-17317.751424000002</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="36">
+        <v>1</v>
+      </c>
+      <c r="D34" s="66">
         <f>'Fixed and Variable Costs'!D9*-1</f>
         <v>-4500</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="36">
+        <v>146</v>
+      </c>
+      <c r="D35" s="66">
         <f>'Itch Fees'!D7*-1</f>
         <v>-5254.8</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="8">
+        <v>63</v>
+      </c>
+      <c r="D36" s="65">
         <f>SUM(D29:D35)</f>
-        <v>161285.15744829632</v>
+        <v>159785.15744829632</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="8">
+        <v>64</v>
+      </c>
+      <c r="D37" s="65">
         <f>'Estimated Revenue'!H20</f>
         <v>105096</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="8">
+        <v>70</v>
+      </c>
+      <c r="D38" s="65">
         <f>M12*'Fixed and Variable Costs'!D7*-1</f>
         <v>-14550</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="8">
+        <v>56</v>
+      </c>
+      <c r="D39" s="65">
         <f>M11*'Fixed and Variable Costs'!D13*-1</f>
         <v>-7020</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="8">
+        <v>137</v>
+      </c>
+      <c r="D40" s="65">
         <f>'Unity Relay Costs'!T10*-1</f>
         <v>-23612.691379199998</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="36">
+        <v>1</v>
+      </c>
+      <c r="D41" s="66">
         <f>'Fixed and Variable Costs'!D9*-1</f>
         <v>-4500</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" s="36">
+        <v>146</v>
+      </c>
+      <c r="D42" s="66">
         <f>'Itch Fees'!D8*-1</f>
         <v>-5254.8</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="8">
+        <v>65</v>
+      </c>
+      <c r="D43" s="65">
         <f>SUM(D36:D42)</f>
-        <v>211443.66606909633</v>
+        <v>209943.66606909633</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
@@ -7018,10 +7093,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A1F534-AC8E-46AC-90DA-5ABDA8C9D1B8}">
-  <dimension ref="C1:F12"/>
+  <dimension ref="C1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="C1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7029,145 +7104,147 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D1" s="40">
         <v>0.4</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="8">
+        <v>101</v>
+      </c>
+      <c r="D2" s="65">
         <v>60000</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>155</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="66">
         <f>'Cost Walk'!D15</f>
-        <v>13160.727854696301</v>
-      </c>
-      <c r="E5" s="36">
+        <v>11660.727854696301</v>
+      </c>
+      <c r="E5" s="66">
         <f>D5*$D$1</f>
-        <v>5264.2911418785206</v>
+        <v>4664.2911418785206</v>
       </c>
       <c r="F5" s="40">
         <f>E5/$D$2</f>
-        <v>8.7738185697975341E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+        <v>7.7738185697975346E-2</v>
+      </c>
+      <c r="K5" s="68"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="19">
         <v>2</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="66">
         <f>'Cost Walk'!D22</f>
-        <v>42083.320341096303</v>
-      </c>
-      <c r="E6" s="36">
+        <v>40583.320341096303</v>
+      </c>
+      <c r="E6" s="66">
         <f t="shared" ref="E6:E9" si="0">D6*$D$1</f>
-        <v>16833.328136438522</v>
+        <v>16233.328136438522</v>
       </c>
       <c r="F6" s="40">
         <f t="shared" ref="F6:F9" si="1">E6/$D$2</f>
-        <v>0.28055546894064204</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+        <v>0.27055546894064203</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="19">
         <v>3</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="66">
         <f>'Cost Walk'!D29</f>
-        <v>104831.70887229631</v>
-      </c>
-      <c r="E7" s="36">
+        <v>103331.70887229631</v>
+      </c>
+      <c r="E7" s="66">
         <f t="shared" si="0"/>
-        <v>41932.683548918525</v>
+        <v>41332.683548918525</v>
       </c>
       <c r="F7" s="40">
         <f t="shared" si="1"/>
-        <v>0.69887805914864209</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+        <v>0.68887805914864209</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" s="19">
         <v>4</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="66">
         <f>'Cost Walk'!D36</f>
-        <v>161285.15744829632</v>
-      </c>
-      <c r="E8" s="36">
+        <v>159785.15744829632</v>
+      </c>
+      <c r="E8" s="66">
         <f t="shared" si="0"/>
-        <v>64514.062979318529</v>
+        <v>63914.062979318529</v>
       </c>
       <c r="F8" s="40">
         <f t="shared" si="1"/>
-        <v>1.0752343829886422</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+        <v>1.0652343829886421</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" s="19">
         <v>5</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="66">
         <f>'Cost Walk'!D43</f>
-        <v>211443.66606909633</v>
-      </c>
-      <c r="E9" s="36">
+        <v>209943.66606909633</v>
+      </c>
+      <c r="E9" s="66">
         <f t="shared" si="0"/>
-        <v>84577.466427638545</v>
+        <v>83977.466427638545</v>
       </c>
       <c r="F9" s="40">
         <f t="shared" si="1"/>
-        <v>1.4096244404606424</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="4">
+        <v>1.3996244404606424</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="67">
         <f>SUM(E5:E9)</f>
-        <v>213121.83223419264</v>
-      </c>
-      <c r="F11" s="46">
+        <v>210121.83223419264</v>
+      </c>
+      <c r="F11" s="45">
         <f>E11/D2</f>
-        <v>3.5520305372365439</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="4">
+        <v>3.5020305372365441</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="67">
         <f>E11-D2</f>
-        <v>153121.83223419264</v>
-      </c>
-      <c r="F12" s="46"/>
+        <v>150121.83223419264</v>
+      </c>
+      <c r="F12" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
